--- a/1º Iteración/Grupo Implementación/Tareas.xlsx
+++ b/1º Iteración/Grupo Implementación/Tareas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="15480" windowHeight="8020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Implementacion" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>Horas</t>
   </si>
@@ -492,36 +492,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -531,6 +501,36 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,92 +883,92 @@
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="37"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="6"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="46"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="49"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
@@ -1199,68 +1199,68 @@
       <c r="A19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1">
       <c r="A20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1">
       <c r="A21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1">
       <c r="A22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1">
       <c r="A23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1">
       <c r="B24" s="21"/>
@@ -1304,7 +1304,7 @@
   <dimension ref="B1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1313,26 +1313,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:4">
-      <c r="B2" s="44"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="3"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="38">
         <v>40976</v>
       </c>
       <c r="D3" s="1">
@@ -1340,10 +1340,10 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="38">
         <v>40976</v>
       </c>
       <c r="D4" s="1">
@@ -1351,10 +1351,10 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="38">
         <v>40977</v>
       </c>
       <c r="D5" s="1">
@@ -1362,10 +1362,10 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="38">
         <v>40980</v>
       </c>
       <c r="D6" s="1">
@@ -1373,10 +1373,10 @@
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="38">
         <v>40980</v>
       </c>
       <c r="D7" s="1">
@@ -1384,8 +1384,8 @@
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="44"/>
-      <c r="C8" s="48">
+      <c r="B8" s="34"/>
+      <c r="C8" s="38">
         <v>40981</v>
       </c>
       <c r="D8" s="1">
@@ -1393,10 +1393,10 @@
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="38">
         <v>40982</v>
       </c>
       <c r="D9" s="1">
@@ -1404,24 +1404,24 @@
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="44"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="3"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="39">
         <v>40983</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="38">
         <v>40983</v>
       </c>
       <c r="D12" s="1">
@@ -1429,33 +1429,39 @@
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="38">
         <v>40984</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="44"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="38">
+        <v>40988</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="44"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="3"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="44"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="3"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="44"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="3"/>
       <c r="D17" s="1"/>
     </row>

--- a/1º Iteración/Grupo Implementación/Tareas.xlsx
+++ b/1º Iteración/Grupo Implementación/Tareas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>Horas</t>
   </si>
@@ -1304,7 +1304,7 @@
   <dimension ref="B1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1451,14 +1451,26 @@
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="34"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="38">
+        <v>40989</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="34"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="38">
+        <v>40990</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="34"/>
